--- a/TPO生词_阅读_1-1生物学.xlsx
+++ b/TPO生词_阅读_1-1生物学.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shapaozi/Library/Mobile Documents/com~apple~CloudDocs/12-STUDENT/JIALU-T&amp;G-201904-201910/TOFEL_STUDY/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A8AE95-5176-B54B-A8F1-D188885F992E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="0" windowWidth="24940" windowHeight="15600" tabRatio="701" activeTab="6"/>
+    <workbookView xWindow="12660" yWindow="1280" windowWidth="15640" windowHeight="15600" tabRatio="701" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -18,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'TPO11-2'!$A$1:$D$24</definedName>
   </definedNames>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -552,6 +558,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>而鲸类动物有</t>
@@ -561,6 +568,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，这便是鲸类动物为了适应水生环境的另一种适应性表现。</t>
@@ -1067,6 +1075,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>respect</t>
@@ -1076,6 +1085,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to it</t>
@@ -1151,6 +1161,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>遵守</t>
@@ -1160,6 +1171,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   n.方面</t>
@@ -1175,6 +1187,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> v.放映；投射</t>
@@ -1226,6 +1239,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持</t>
@@ -1235,6 +1249,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>；倒退</t>
@@ -1250,6 +1265,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>respect</t>
@@ -1259,6 +1275,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> to the surroundings </t>
@@ -1372,6 +1389,149 @@
   <si>
     <t>vulnerable</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>survey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.调查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.期待；预期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vigorous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.精力充沛的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy costs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sibling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.兄弟姐妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量损耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>propagate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v..传播；繁殖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">An individual's success in propagating his or her genes can be affected by more than just his or her own personal reproductive success. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">at the expense of </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以...为代价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">leave behind </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a./ad.全部的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a./ad.另外，在其他方面的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>signaler costs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号成本？？？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>either</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.两者之一的；  pron.任一；两者中的任何一个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raccoon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.v./产量,收益/   产出,产生；     v.屈服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherwise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many signals that animals make seem to impose on the signalers costs that are overly damaging. 
+ the signalers costs ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">begging tree swallows ？ </t>
   </si>
   <si>
     <r>
@@ -1382,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>and so may better conceal the individuals producing them</t>
@@ -1391,170 +1552,24 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, who are especially vulnerable to predators in their ground nests. </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yield</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>survey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.调查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.期待；预期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">begging tree swallows ？ </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vigorous</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.精力充沛的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy costs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Many signals that animals make seem to impose on the signalers costs that are overly damaging. 
- the signalers costs ？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sibling</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.兄弟姐妹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>热量损耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>propagate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v..传播；繁殖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">An individual's success in propagating his or her genes can be affected by more than just his or her own personal reproductive success. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">at the expense of </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以...为代价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">leave behind </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>留下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>overall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a./ad.全部的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a./ad.另外，在其他方面的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>signaler costs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信号成本？？？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>11题 C.point out a weakness in a possible explanation for why nestlings do not always beg vigorously.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>either</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.两者之一的；  pron.任一；两者中的任何一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>raccoon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n.v./产量,收益/   产出,产生；     v.屈服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>otherwise</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode=";;;"/>
+    <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1564,7 +1579,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1572,6 +1587,7 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1585,6 +1601,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1592,6 +1609,7 @@
       <sz val="12"/>
       <color theme="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1605,24 +1623,28 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0" tint="-0.14999847407452621"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF800000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1630,6 +1652,7 @@
       <sz val="12"/>
       <color rgb="FF800000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1637,6 +1660,14 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4762,7 +4793,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4789,7 +4820,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4806,3090 +4837,3101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3077">
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="733" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="735" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="737" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="739" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="741" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="743" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="745" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="747" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="749" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="751" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="753" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="755" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="757" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="759" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="761" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="763" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="765" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="767" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="769" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="771" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="773" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="775" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="777" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="779" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="781" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="783" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="785" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="787" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="789" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="791" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="793" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="795" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="797" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="799" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="801" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="803" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="805" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="807" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="809" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="811" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="813" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="815" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="817" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="819" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="821" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="823" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="825" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="827" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="829" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="831" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="833" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="835" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="837" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="839" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="841" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="843" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="845" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="847" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="849" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="851" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="853" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="855" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="857" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="859" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="861" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="863" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="865" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="867" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="869" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="871" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="873" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="875" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="877" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="879" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="881" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="883" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="885" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="887" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="889" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="891" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="893" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="895" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="897" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="899" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="901" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="903" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="905" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="907" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="909" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="911" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="913" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="915" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="917" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="919" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="921" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="923" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="925" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="927" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="929" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="931" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="933" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="935" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="937" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="939" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="941" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="943" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="945" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="947" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="949" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="951" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="953" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="955" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="957" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="959" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="961" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="963" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="965" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="967" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="969" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="971" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="973" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="975" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="977" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="979" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="981" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="983" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="985" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="987" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="989" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="991" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="993" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="995" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="997" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="999" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1001" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1003" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1005" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1007" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1009" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1011" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1013" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1015" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1017" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1019" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1021" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1023" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1025" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1027" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1029" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1031" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1033" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1035" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1037" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1039" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1041" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1043" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1045" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1047" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1049" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1051" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1053" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1055" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1057" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1059" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1061" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1063" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1065" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1067" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1069" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1071" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1073" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1075" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1077" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1079" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1081" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1083" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1085" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1087" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1089" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1091" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1093" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1095" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1097" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1099" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1601" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1603" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1605" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1607" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1609" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1611" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1621" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1623" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1625" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1627" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1629" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1631" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1633" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1635" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1637" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1639" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1641" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1643" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1645" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1647" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1649" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1651" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1653" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1655" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1657" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1659" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1661" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1663" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1665" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1667" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1669" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1671" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1673" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1675" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1677" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1679" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1681" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1683" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1685" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1687" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1689" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1691" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1693" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1695" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1697" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1699" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1701" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1703" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1705" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1707" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1709" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1711" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1713" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1715" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1717" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1719" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1721" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1723" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1725" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1727" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1729" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1731" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1733" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1735" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1737" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1739" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1741" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1743" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1745" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1747" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1749" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1751" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1753" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1755" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1757" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1759" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1761" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1763" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1765" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1767" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1769" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1771" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1773" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1775" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1777" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1779" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1781" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1783" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1785" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1787" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1789" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1791" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1793" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1795" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1797" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1799" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1801" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1803" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1805" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1807" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1809" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1811" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1813" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1815" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1817" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1819" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1821" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1823" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1825" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1827" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1829" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1831" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1833" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1835" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1837" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1839" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1841" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1843" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1845" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1847" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1849" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1851" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1853" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1855" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1857" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1859" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1861" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1863" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1865" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1867" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1869" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1871" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1873" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1875" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1877" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1879" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1881" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1883" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1885" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1887" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1889" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1891" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1893" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1895" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1897" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1899" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1901" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1903" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1905" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1907" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1909" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1911" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1913" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1915" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1917" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1919" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1921" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1923" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1925" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1927" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1929" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1931" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1933" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1935" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1937" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1939" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1941" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1943" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1945" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1947" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1949" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1951" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1953" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1955" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1957" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1959" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1961" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1963" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1965" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1967" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1969" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1971" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1973" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1975" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1977" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1979" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1981" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1983" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1985" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1987" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1989" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1991" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1993" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1995" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1997" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="1999" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2001" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2003" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2005" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2007" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2009" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2011" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2013" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2015" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2017" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2019" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2021" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2023" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2025" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2027" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2029" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2031" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2033" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2035" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2037" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2039" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2041" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2043" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2045" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2047" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2049" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2051" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2053" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2055" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2057" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2059" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2061" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2063" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2065" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2067" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2069" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2071" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2073" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2075" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2077" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2079" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2081" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2083" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2085" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2087" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2089" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2091" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2093" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2095" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2097" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2099" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2601" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2603" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2605" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2607" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2609" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2611" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2621" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2623" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2625" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2627" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2629" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2631" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2633" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2635" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2637" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2639" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2641" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2643" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2645" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2647" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2649" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2651" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2653" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2655" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2657" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2659" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2661" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2663" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2665" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2667" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2669" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2671" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2673" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2675" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2677" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2679" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2681" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2683" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2685" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2687" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2689" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2691" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2693" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2695" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2697" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2699" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2701" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2703" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2705" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2707" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2709" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2711" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2713" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2715" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2717" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2719" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2721" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2723" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2725" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2727" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2729" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2731" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2733" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2735" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2737" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2739" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2741" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2743" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2745" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2747" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2749" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2751" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2753" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2755" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2757" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2759" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2761" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2763" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2765" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2767" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2769" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2771" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2773" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2775" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2777" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2779" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2781" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2783" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2785" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2787" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2789" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2791" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2793" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2795" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2797" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2799" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2801" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2803" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2805" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2807" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2809" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2811" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2813" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2815" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2817" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2819" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2821" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2823" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2825" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2827" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2829" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2831" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2833" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2835" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2837" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2839" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2841" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2843" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2845" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2847" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2849" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2851" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2853" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2855" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2857" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2859" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2861" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2863" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2865" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2867" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2869" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2871" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2873" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2875" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2877" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2879" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2881" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2883" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2885" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2887" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2889" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2891" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2893" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2895" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2897" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2899" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2901" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2903" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2905" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2907" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2909" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2911" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2913" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2915" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2917" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2919" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2921" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2923" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2925" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2927" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2929" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2931" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2933" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2935" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2937" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2939" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2941" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2943" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2945" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2947" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2949" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2951" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2953" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2955" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2957" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2959" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2961" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2963" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2965" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2967" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2969" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2971" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2973" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2975" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2977" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2979" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2981" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2983" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2985" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2987" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2989" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2991" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2993" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2995" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2997" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="2999" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3001" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3003" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3005" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3007" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3009" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3011" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3013" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3015" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3017" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3019" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3021" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3023" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3025" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3027" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3029" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3031" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3033" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3035" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3037" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3039" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3041" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3043" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3045" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3047" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3049" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3051" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3053" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3055" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3057" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3059" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3061" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3063" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3065" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3067" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3069" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3071" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3073" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3075" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="734" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="736" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="738" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="740" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="742" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="744" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="746" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="748" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="750" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="752" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="754" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="756" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="758" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="760" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="762" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="764" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="766" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="768" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="770" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="772" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="774" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="776" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="778" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="780" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="782" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="784" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="786" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="788" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="790" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="792" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="794" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="796" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="798" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="800" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="802" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="804" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="806" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="808" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="810" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="812" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="814" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="816" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="818" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="820" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="822" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="824" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="826" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="828" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="830" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="832" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="834" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="836" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="838" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="840" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="842" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="844" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="846" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="848" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="850" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="852" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="854" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="856" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="858" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="860" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="862" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="864" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="866" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="868" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="870" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="872" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="874" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="876" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="878" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="880" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="882" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="884" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="886" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="888" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="890" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="892" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="894" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="896" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="898" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="900" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="902" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="904" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="906" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="908" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="910" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="912" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="914" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="916" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="918" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="920" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="922" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="924" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="926" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="928" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="930" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="932" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="934" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="936" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="938" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="940" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="942" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="944" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="946" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="948" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="950" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="952" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="954" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="956" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="958" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="960" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="962" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="964" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="966" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="968" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="970" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="972" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="974" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="976" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="978" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="980" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="982" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="984" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="986" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="988" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="990" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="992" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="994" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="996" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="998" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1000" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1002" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1004" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1006" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1008" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1010" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1012" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1014" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1016" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1018" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1020" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1022" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1024" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1026" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1028" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1030" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1032" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1034" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1036" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1038" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1040" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1042" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1044" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1046" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1048" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1050" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1052" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1054" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1056" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1058" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1060" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1062" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1064" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1066" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1068" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1070" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1072" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1074" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1076" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1078" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1080" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1082" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1084" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1086" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1088" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1090" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1092" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1094" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1096" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1098" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1602" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1604" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1606" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1608" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1610" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1612" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1622" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1624" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1626" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1628" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1630" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1632" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1634" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1636" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1638" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1640" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1642" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1644" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1646" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1648" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1650" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1652" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1654" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1656" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1658" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1660" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1662" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1664" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1666" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1668" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1670" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1672" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1674" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1676" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1678" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1680" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1682" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1684" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1686" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1688" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1690" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1692" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1694" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1696" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1698" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1700" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1702" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1704" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1706" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1708" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1710" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1712" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1714" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1716" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1718" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1720" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1722" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1724" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1726" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1728" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1730" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1732" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1734" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1736" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1738" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1740" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1742" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1744" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1746" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1748" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1750" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1752" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1754" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1756" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1758" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1760" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1762" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1764" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1766" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1768" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1770" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1772" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1774" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1776" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1778" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1780" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1782" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1784" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1786" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1788" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1790" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1792" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1794" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1796" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1798" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1800" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1802" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1804" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1806" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1808" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1810" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1812" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1814" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1816" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1818" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1820" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1822" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1824" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1826" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1828" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1830" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1832" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1834" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1836" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1838" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1840" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1842" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1844" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1846" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1848" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1850" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1852" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1854" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1856" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1858" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1860" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1862" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1864" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1866" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1868" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1870" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1872" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1874" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1876" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1878" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1880" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1882" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1884" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1886" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1888" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1890" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1892" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1894" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1896" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1898" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1900" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1902" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1904" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1906" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1908" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1910" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1912" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1914" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1916" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1918" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1920" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1922" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1924" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1926" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1928" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1930" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1932" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1934" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1936" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1938" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1940" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1942" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1944" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1946" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1948" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1950" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1952" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1954" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1956" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1958" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1960" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1962" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1964" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1966" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1968" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1970" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1972" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1974" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1976" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1978" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1980" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1982" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1984" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1986" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1988" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1990" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1992" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1994" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1996" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="1998" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2000" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2002" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2004" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2006" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2008" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2010" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2012" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2014" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2016" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2018" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2020" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2022" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2024" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2026" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2028" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2030" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2032" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2034" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2036" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2038" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2040" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2042" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2044" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2046" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2048" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2050" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2052" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2054" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2056" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2058" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2060" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2062" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2064" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2066" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2068" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2070" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2072" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2074" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2076" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2078" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2080" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2082" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2084" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2086" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2088" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2090" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2092" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2094" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2096" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2098" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2602" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2604" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2606" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2608" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2610" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2612" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2622" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2624" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2626" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2628" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2630" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2632" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2634" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2636" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2638" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2640" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2642" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2644" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2646" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2648" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2650" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2652" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2654" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2656" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2658" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2660" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2662" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2664" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2666" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2668" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2670" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2672" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2674" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2676" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2678" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2680" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2682" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2684" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2686" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2688" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2690" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2692" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2694" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2696" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2698" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2700" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2702" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2704" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2706" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2708" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2710" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2712" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2714" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2716" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2718" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2720" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2722" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2724" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2726" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2728" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2730" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2732" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2734" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2736" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2738" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2740" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2742" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2744" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2746" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2748" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2750" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2752" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2754" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2756" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2758" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2760" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2762" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2764" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2766" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2768" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2770" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2772" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2774" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2776" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2778" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2780" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2782" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2784" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2786" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2788" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2790" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2792" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2794" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2796" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2798" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2800" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2802" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2804" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2806" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2808" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2810" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2812" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2814" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2816" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2818" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2820" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2822" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2824" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2826" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2828" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2830" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2832" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2834" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2836" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2838" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2840" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2842" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2844" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2846" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2848" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2850" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2852" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2854" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2856" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2858" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2860" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2862" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2864" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2866" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2868" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2870" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2872" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2874" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2876" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2878" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2880" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2882" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2884" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2886" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2888" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2890" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2892" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2894" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2896" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2898" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2900" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2902" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2904" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2906" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2908" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2910" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2912" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2914" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2916" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2918" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2920" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2922" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2924" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2926" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2928" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2930" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2932" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2934" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2936" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2938" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2940" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2942" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2944" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2946" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2948" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2950" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2952" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2954" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2956" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2958" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2960" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2962" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2964" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2966" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2968" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2970" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2972" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2974" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2976" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2978" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2980" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2982" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2984" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2986" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2988" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2990" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2992" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2994" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2996" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2998" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3000" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3002" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3004" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3006" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3008" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3010" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3012" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3014" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3016" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3018" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3020" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3022" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3024" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3026" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3028" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3030" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3032" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3034" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3036" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3038" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3040" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3042" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3044" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3046" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3048" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3050" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3052" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3054" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3056" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3058" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3060" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3062" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3064" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3066" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3068" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3070" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3072" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3074" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3076" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3076" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3075" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-0000040C0000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8214,15 +8256,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -8449,15 +8491,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A2:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -8764,15 +8806,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A2:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
@@ -8948,7 +8990,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="51">
+    <row r="22" spans="1:3" ht="57">
       <c r="B22" s="11" t="s">
         <v>131</v>
       </c>
@@ -9033,15 +9075,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表4" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A2:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
@@ -9447,15 +9489,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表5" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9469,15 +9511,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表6" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="4" customWidth="1"/>
@@ -9490,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="19">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -9758,7 +9800,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D24">
+  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <sortState ref="A2:D23">
       <sortCondition ref="B1:B23"/>
     </sortState>
@@ -9775,15 +9817,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="工作表7" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
@@ -9792,43 +9834,43 @@
     <col min="5" max="5" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="68">
+    <row r="1" spans="1:5" ht="76">
       <c r="D1" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19">
       <c r="D2" s="25"/>
-      <c r="E2" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51">
+      <c r="E2" s="31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="76">
       <c r="D3" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="51">
+        <v>318</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57">
       <c r="B4" s="12"/>
       <c r="C4" s="24"/>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="38">
       <c r="B5" s="12"/>
       <c r="C5" s="24"/>
-      <c r="E5" s="11" t="s">
-        <v>343</v>
+      <c r="E5" s="31" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9908,7 +9950,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="26"/>
       <c r="B14" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>303</v>
@@ -9970,124 +10012,124 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>314</v>
-      </c>
       <c r="C21" s="29" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="26"/>
       <c r="B22" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>315</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="26" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="26"/>
       <c r="B26" s="19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="26"/>
       <c r="B27" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="26"/>
       <c r="B28" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="26"/>
       <c r="B29" s="28" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="26"/>
       <c r="B30" s="28" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="26"/>
       <c r="B31" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="26"/>
       <c r="B32" s="30" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="19" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/TPO生词_阅读_1-1生物学.xlsx
+++ b/TPO生词_阅读_1-1生物学.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shapaozi/Library/Mobile Documents/com~apple~CloudDocs/12-STUDENT/JIALU-T&amp;G-201904-201910/TOFEL_STUDY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A8AE95-5176-B54B-A8F1-D188885F992E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1ECDB-11F1-7541-AC0D-1449885E716D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1280" windowWidth="15640" windowHeight="15600" tabRatio="701" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5320" yWindow="800" windowWidth="21320" windowHeight="15600" tabRatio="701" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总表" sheetId="1" r:id="rId1"/>
@@ -9822,7 +9822,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
